--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="105">
   <si>
     <t>Qty</t>
   </si>
@@ -51,9 +51,6 @@
     <t>0.1uF</t>
   </si>
   <si>
-    <t>CAP0805</t>
-  </si>
-  <si>
     <t>C2, C3, C5, C6, C9</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>10k</t>
   </si>
   <si>
-    <t>RESISTOR0805-RES</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>C4</t>
   </si>
   <si>
-    <t>CAP_POL0805</t>
-  </si>
-  <si>
     <t>0805-POL</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>2.5k</t>
   </si>
   <si>
-    <t>FERRITE_BEAD_0805</t>
-  </si>
-  <si>
     <t>FB1, FB2</t>
   </si>
   <si>
@@ -120,9 +108,6 @@
     <t>Zener Diode</t>
   </si>
   <si>
-    <t>5k</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
@@ -147,9 +132,6 @@
     <t>FTDI Basic</t>
   </si>
   <si>
-    <t>ARDUINO_SERIAL_PROGRAMPTH</t>
-  </si>
-  <si>
     <t>1X06</t>
   </si>
   <si>
@@ -168,9 +150,6 @@
     <t>MIC5205</t>
   </si>
   <si>
-    <t>V_REG_LDOSMD</t>
-  </si>
-  <si>
     <t>SOT23-5</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>PWR_IN</t>
   </si>
   <si>
-    <t>M02POLAR</t>
-  </si>
-  <si>
     <t>MOLEX-1X2</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>Standard 2-pin 0.1 header. Use with"</t>
   </si>
   <si>
-    <t>ROTARY_ENCODER-EN12-VS</t>
-  </si>
-  <si>
     <t>EN12-VS</t>
   </si>
   <si>
@@ -240,9 +213,6 @@
     <t>49.9R</t>
   </si>
   <si>
-    <t>DIODE-ZENER5.0V</t>
-  </si>
-  <si>
     <t>ATMEGA328P</t>
   </si>
   <si>
@@ -253,13 +223,124 @@
   </si>
   <si>
     <t>20.000000MHz</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>611-PVB6THTEE300NS</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>OSHPark</t>
+  </si>
+  <si>
+    <t>576-1262-1-ND</t>
+  </si>
+  <si>
+    <t>A97553-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA328P-AURCT-ND</t>
+  </si>
+  <si>
+    <t>568-6286-1-ND</t>
+  </si>
+  <si>
+    <t>311-49.9CRCT-ND</t>
+  </si>
+  <si>
+    <t>COM-12710</t>
+  </si>
+  <si>
+    <t>1276-6377-1-ND</t>
+  </si>
+  <si>
+    <t>987-1198-ND</t>
+  </si>
+  <si>
+    <t>296-3788-1-ND</t>
+  </si>
+  <si>
+    <t>311-15.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>311-4.99KCRCT-ND</t>
+  </si>
+  <si>
+    <t>4.99k</t>
+  </si>
+  <si>
+    <t>587-2225-1-ND</t>
+  </si>
+  <si>
+    <t>478-8456-1-ND</t>
+  </si>
+  <si>
+    <t>399-1171-1-ND</t>
+  </si>
+  <si>
+    <t>311-10.0KLRCT-ND</t>
+  </si>
+  <si>
+    <t>PRT-08233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT-00116 </t>
+  </si>
+  <si>
+    <t>FERRITE_BEAD</t>
+  </si>
+  <si>
+    <t>Diode, zener, 4.7V</t>
+  </si>
+  <si>
+    <t>BNC connector</t>
+  </si>
+  <si>
+    <t>pins</t>
+  </si>
+  <si>
+    <t>Voltage Regulator, LDO</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>ROTARY_ENCODER</t>
+  </si>
+  <si>
+    <t>Switch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +356,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -284,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,16 +380,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -601,24 +709,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="134.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="134.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -634,15 +745,24 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -654,361 +774,565 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="3">
+        <f>5.49/5</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="3">
+        <f>17/3</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F4" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="3">
+        <f>A4*0.0533</f>
+        <v>0.26650000000000001</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="3">
+        <f>A5*0.0054</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="3">
+        <f>A6*0.26</f>
+        <v>0.26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="3">
+        <f>A7*0.4678</f>
+        <v>1.4034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="3">
+        <f>A8*0.0084</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="3">
+        <f>A9*0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="3">
+        <f>A10*0.1363</f>
+        <v>0.1363</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3">
+        <f>A11*0.0084</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="3">
+        <f>A12*0.0084</f>
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="3">
+        <f>A13*3.7</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="3">
+        <f>6/40*1.5</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2.95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.33</v>
+      </c>
+      <c r="I18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E21" t="s">
         <v>61</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <f>SUM(H2:H22)</f>
+        <v>21.936466666666664</v>
       </c>
     </row>
   </sheetData>
